--- a/AI/dataset/가슴/user.xlsx
+++ b/AI/dataset/가슴/user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thsdb\AppData\Local\Programs\Python\Python39\MyProject\son-yu-seoung-git_hub\2022_KIKOM\AI\dataset\가슴\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EAE1EE-D925-4CAA-975F-D8C782068397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCE4866-222F-4A6E-8E0A-021388CC61E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13095" yWindow="3360" windowWidth="14055" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="4395" windowWidth="14055" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,6 +441,86 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
